--- a/500all/speech_level/speeches_CHRG-114hhrg20842.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20842.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,39 +52,24 @@
     <t>400630</t>
   </si>
   <si>
-    <t>Daniel Lipinski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you Chairwoman Comstock for holding this hearing and welcome to the witnesses today. Today we'll be discussing cybersecurity breaches at two IRS online service portals.    Just about every American can expect to interact with the IRS during his or her life, and the agency's responsibilities make it privy to significant amounts of personal information about all of these individuals. Consequently, the data breaches at the IRS are particularly troubling and we should closely examine what the IRS has done wrong when it comes to protecting the personal information of Americans, how it can do better in regard to cybersecurity, and what Congress can do to better support IRS cybersecurity efforts. In meeting their obligation to pay taxes, Americans should have confidence that the IRS is taking all possible steps to protect them from cyber thieves.    Cybersecurity remains an evolving challenge across federal agencies as well as the private sector. Standards that were leading edge a year ago may be outdated today. Security is not a one-time goal to be achieved and placed on autopilot; it is a process that requires vigilance, continual learning, and fast dissemination of critical information to prevent and respond to new threats. While no entity, public or private, can protect data with 100 percent certainty, we must be nimble in learning from failures or missteps in cybersecurity policies and procedures.    To this end, we should heed the careful and detailed recommendations of the GAO and the Inspectors General. We must also ensure that decisions on cybersecurity policies are backed by a process that supports accountability, robust and forward-looking decision-making, and a clear sense of the consequences that can stem from data security failures.    Unfortunately, it is not at all apparent from the recent breaches at the IRS that the agency's policies were governed by such a comprehensive process. The two breaches that we are discussing today--the Get Transcript application and the Identity Protection PIN application--should not be viewed in isolation. Both of these breaches were facilitated in part by the same security weakness, namely the overreliance on out-of-the-wallet questions derived from credit report data. While in principle the answers to such questions should only be known by taxpayers, in practice they can often be guessed or uncovered from sources such as social media or websites compiling public record data. As a result, a breach in one application should have tipped off the IRS that the other was vulnerable as well. Yet the agency continued to make online IP PIN retrieval available long after shutting down the Get Transcript application because of security concerns. Further, the agency continued to do so even after the Treasury Inspector General for Tax Administration warned the IRS to shut down the IP PIN tool as well.    We must get clarity on what steps the IRS is taking to ensure internal information sharing so that any breaches and their implications are quickly assessed across the entire organization and not just separate units or staff dealing directly with a problem at hand. Further, we must examine why the IRS ignored or deprioritized the TIGTA recommendation to shut down the IP PIN tool. Simply put, given how one breach built on the other, this should not have occurred.    In the context of this hearing, it is important to talk about NIST, an agency that this Subcommittee has jurisdiction over. NIST plays an important role in developing technical standards and providing expert advice to agencies across the government as they carry out their responsibilities under the Federal Information Security Management Act, or FISMA.    It is clear that the IRS did not follow the risk analysis or cybersecurity and authentication standards set by NIST when it set up these portals. The most important question is ``why?'' Was it a lacking--was it a lack of understanding of the standards? In this case, we need to have NIST here to talk about the standards and how to make them more clear. Or are there technical barriers to implementing the NIST standards at all? In this case, we need to have information on why these applications were allowed to go live in the first place. Or was this a strategic decision driven by tradeoffs between consumer convenience and security? These were put online to make the experience of taxpayers with the IRS better and easier. But if that's the case, we must be clear: the IRS has a unique role among federal agencies and holds information on taxpayers that few others have. Protection of taxpayer data must be a top-level priority, and we must work to ensure that a breach of this nature doesn't happen again.    Finally, I'd like to note that successful data security efforts depend on agencies being able to hire experienced cybersecurity professionals as well as having budgetary resources specifically directed toward security infrastructure. While some security failures at the IRS raise oversight questions about decision-making protocols at the management level, we also cannot ignore that successful implementation of good security practices costs money. Although this is beyond the scope of our Committee's jurisdiction, I am concerned that Congress has yet to reauthorize IRS's streamlined critical pay authority which helps the agency compete with the private sector for top cybersecurity talent. And as Congress makes funding decisions for the coming fiscal year, we must ensure that we provide resources to match current IT-specific needs.    I look forward to this morning's discussion, and I yield back the balance of my time</t>
   </si>
   <si>
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Madam Chair, and I appreciate the witnesses being here today.    In this Congress, the Science Committee has held half a dozen hearings on cybersecurity issues and vulnerabilities at federal agencies, and we continue to hear the concerns of millions of Americans who quite frankly don't trust the federal government to protect their personal information from cyber criminals. Too many federal agencies fail to meet the basic standards of information security. We've seen this with HealthCare.Gov and the cyber breach at the Office of Personnel Management. The same is true for the IRS.    According to a report published last November by the Treasury Inspector General for Tax Administration), the IRS's identity authentication methods for online services do not comply with Government Information Security Standards. In other words, the IRS has not taken the necessary steps to ensure that individuals are who they claim to be before handing over Americans' confidential tax information. As a result of these vulnerabilities, the TIGTA report found that, ``unscrupulous individuals have gained unauthorized access to tax account information.''    The U.S. Government Accountability Office has identified a number of ongoing cybersecurity system gaps and IRS failures to fully implement certain security controls. The report found that of 28 prior GAO cybersecurity recommendations to the IRS, nine have not been effectively implemented. These gaps could open the door for cyber criminals to steal confidential taxpayer data.    The past year's IRS breaches are especially troubling. Taxpayer data was fraudulently accessed, not through a forcible compromise of the computer systems, but by hackers who correctly answered security questions that should have only been answerable by the actual individual. The hackers likely accessed the requisite data from prior high-profile hacks.    Last year's OPM and Anthem Health Insurance breaches compromised the information of over 100 million people. This included the names, addresses, dates of birth, and Social Security numbers of the victims. For cyber criminals, this information is similar to making duplicate keys to your house. It's a license to steal whenever and wherever the criminals find an opportunity.    The IRS security breach demonstrates once again that rigorous adherence to all cybersecurity protections must be the top priority for every federal agency. Slow responses and partial measures at the IRS do not protect innocent Americans from these cyber-attacks. The government should be accountable to the people and keep Americans' sensitive information secure.    Thank you, Madam Chairman, and I'll yield back.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Koskinen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Koskinen. Thank you, Chairman Smith, Chairwoman Comstock, Ranking Member Lipinski, and members of the Subcommittee. I appreciate the opportunity to discuss with you today the IRS's ongoing efforts in regard to cybersecurity and identity theft. Securing our systems and taxpayer data continues to be a top priority for the IRS. Even with our constrained resources as a result of repeatedly decreased funding over the past few years, we continue to devote significant time and attention to this challenge. We work continuously to protect our main computer systems from cyber-attacks and to safeguard taxpayer information stored in our databases. These systems withstand more than one million attempts to access them each day.    We're also continuing to battle a growing problem of stolen identify refund fraud. Over the past few years, we've made steady progress in protecting against fraudulent refund claims and criminally prosecuting those who engage in this crime.    But we've found the type of criminal we are dealing with has changed. This problem used to be random individuals filing a few dozen or a few hundred false tax returns at a time. Now we're dealing more and more with organized-crime syndicates here and in other countries. They're gathering unimaginable amounts of personal data as noted from sources outside the IRS so they can do a better job of impersonating taxpayers, evading our return processing filters, and obtaining fraudulent refunds.    To improve our efforts against this complex and evolving threat, in March 2015 we joined with the leaders of the electronic tax industry and the private sector, the software industry and the states to create the Security Summit Group. This is an unprecedented partnership that is focused on making the tax filing experience safer and more secure for taxpayers in 2016 and beyond.    Our collaborative efforts with the private sector and state tax commissioners have already shown concrete results this filing season. For example, Security Summit partners have helped us improve our ability to spot potentially false returns before they are processed. Over the past year, we've seen three examples of what identity thieves are capable of and why we can't let up in this fight. In each case we detected and stopped unauthorized attempts to access online services on our website, IRS.gov, by criminals masquerading as legitimate taxpayers. One of the services targeted, as noted, was our``Get Transcript'' online application used by taxpayers to quickly obtained a copy of their prior year return. Another, as noted, was the online tool to retrieve lost identity protection personal identifier numbers, or IP PINs. Taxpayers who previously were victims of identity theft used these PINs to prove their identity when they filed a return. And the third was a tool that some people used to generate a PIN number when they e-filed their tax returns. In all three cases, criminals were trying to use our online tools to help them pretend to be legitimate taxpayers and sneak past false returns past our fraud filters. These incidents, which unfortunately in the case of ``Get Transcript'' access, resulted in the loss of taxpayer information for thousands of taxpayers before the application was disabled, has shown us that improving our reaction time to suspicious activity isn't enough. We need to be able to anticipate the criminals' next moves and attempt to stay ahead of them. The ongoing work of the Security Summit Group will be critical to our success here.    As we confront the challenge of identity theft, we're also working to expand and improve our ability to interact with taxpayers online to meet taxpayers' increasing demand for digital services. We are aware, however, that in building toward this enhanced online experience, we must continually upgrade and improve our ability to verify the identity of taxpayers using these services. Taxpayers will only use these services if they're confident that they are safe and secure. So we're in the process of developing a strong, coordinated authentication framework.    We have a delicate balance to maintain here. We need to keep the criminals out while letting the legitimate taxpayers in. Our goal is to have the strongest possible authentication process for our ongoing services while maintaining the ability of taxpayers to access their data and use IRS services online.    Congress can provide critical support by providing adequate resources for these efforts. We appreciate the $290 million in additional funding Congress provided for fiscal 2016, which included funds to improve cybersecurity and fight identity theft. We used over $100 million of that funding and are using it now in those areas. Sustaining and increasing funding in this area will be critical as we move forward.    Another way Congress can help us is by passing legislative proposals to improve tax administration and cybersecurity. One of the most important requests we have made is for the reauthorization of streamlined critical pay, the loss of which has made it very difficult, if not impossible, to recruit and retain employees with expertise in highly technical areas such as information technology.    Chairman Smith, Chairwoman Comstock, Ranking Member Lipinski, and members of the Subcommittee, this concludes my statement. I'd be happy to take your questions.</t>
   </si>
   <si>
-    <t>George</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. George. Thank you, Chairwoman Comstock, Ranking Member Lipinski, Chairman Smith, and members of the Subcommittee. Thank you for the opportunity to testify on the IRS's actions to protect taxpayers' personal information.    For the last six years, we have identified the security of taxpayer data as the most serious management challenge confronting the IRS. Based on our work on information technology security, TIGTA has identified a number of areas in which the IRS could do better to protect taxpayer data.    The IRS has been moving towards providing more services through the internet referred to as online services. Web applications that provide online services must be set up in a secure manner. Even without breaching the security of the application or hardware, hackers can pose as legitimate users in order to make it through the authentication process and obtain sensitive data.    Recent security incidents, has been noted during the outset of this hearing, that involved two of the IRS's online service applications, are prime examples of what can go wrong when security is inadequate. While the IRS had established processes and procedures to authenticate individuals requesting online access to IRS services, they did not comply with government standards. For example, the processes that the IRS used to authenticate users of the ``Get Transcript'' and Identity Protection Personal Identification Number applications required only single-factor authentication. However, government standards require multifactor authentication for such high-risk applications. Of further concern, the authentication framework used for these applications did not comply with government standards for single-factor authentication.    In August 2015, the IRS reported that unauthorized users had been successful in obtaining tax information on the ``Get Transcript'' application for an estimated 334,000 taxpayer accounts, as you noted, Madam Chairwoman. To prevent further unauthorized access, the IRS removed the application from its website. TIGTA's subsequent review of the ``Get Transcript'' breach identified additional suspicious accesses to taxpayers' accounts that the IRS had not identified. Based on TIGTA's analysis, the IRS reported on February 26th of this year that potentially unauthorized users had been successful in obtaining access to an additional 390,000 taxpayer accounts, again, as has been noted.    We also reported in November 2015 that the IRS did not complete the required authentication risk assessment for its Identify Protection PIN application and recommended that the IRS not reactivate this application for the 2016 filing season. However, the IRS reactivated the application on January 19th of this year. We issued a second recommendation to the IRS on February 24th advising it to remove the Identity Protection PIN application from its public website. On March 7th, the IRS reported that it was temporarily suspending use of the Identity Protection PIN application as part of an ongoing security review.    The IRS does not anticipate having the technology in place for either the ``Get Transcript'' or Identity Protection PIN application to provide multifactor authentication capability before the summer of 2016. In addition, TIGTA's assessment of the IRS's compliance with information security standards and guidelines found that while the IRS information security program generally complied with the requirements of FISMA--the Federal Information Security Modernization Act--there were three security program areas which did not, and they are continuous monitoring management, configuration management, and identity and access management. Until the IRS takes steps to improve these security program deficiencies and fully implement all security program areas in compliance with requirements, taxpayer data will remain vulnerable to inappropriate and undetected use, modification for disclosure.    Chairman Comstock, Ranking Member Lipinski, Chairman Smith, Members of the Subcommittee, thank you for the opportunity to share my views.</t>
   </si>
   <si>
-    <t>Wilshusen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilshusen. Chairwoman Comstock, Ranking Member Lipinski, Chairman Smith, and Members of the Subcommittee, thank you for the opportunity to testify on IRS's Information Security program.    As part of GAO's annual audit of IRS's financial statements, we examined the information security controls over the Service's financial and tax processing systems. As we reported in March, IRS has implemented numerous protections over these systems but weaknesses remain in controls that are intended to prevent, detect and limit unauthorized access to systems and the information they contain.    IRS had developed controls for identifying and authenticating the identity of users and servers. However, they were inconsistently implemented. For example, the agency used easily guessed passwords on servers supporting several systems including those relating to procurements, automated file transfers, management of taxpayer accounts, and processing of electronic tax payment information. In addition, users were granted excessive access permissions on 11 of 14 systems we reviewed including on one system which allowed users to access or change tax payment-related data.    IRS policies require use of encryption, and the agency continued to expand its use. However, sensitive administrative credentials were not encrypted on key systems that we reviewed. Software patches were often not installed in a timely manner on several systems including at least one critical patch that has been available since August 2012. To its credit, IRS had established contingency plans for the systems we review, which help to ensure that critical operations can continue when unexpected events occur. Nevertheless, the control weaknesses we identified were caused in part by IRS's inconsistent execution of its information security program. Including the 45 new recommendations we made in March, IRS has yet to implement 94 of our recommendations. Implementing these recommendations will assist IRS in bolstering its information security and protection over taxpayer information. Until it does so, taxpayer and financial data will continue to be exposed to unnecessary risk.    The importance of protecting taxpayer information is further highlighted by the recent incidents involving the ``Get Transcript'' online service and the billions of dollars that have been lost to identity theft refund fraud. This type of fraud occurs when a criminal obtains personally identifiable information of a legitimate taxpayer and uses it to file a fraudulent return seeking a refund. Because of its continuing significance, we added IRS's efforts to combat identity theft refund fraud to our high-risk area on the enforcement of tax laws. IRS has acted to address this problem but additional actions are needed.    In January 2015, we reported that its tools for authenticating the identity of taxpayers using e-file had limitations and recommended that IRS assess the risks, costs and benefits of its authentication options.    To assist and guide federal efforts, OMB--the Office of Management and Budget--and the National Institute of Standards and Technology play a key role in developing information security policies, standards, and guidelines for federal agencies. Among other things, OMB and NIST have developed guidance for agencies implementing e-authentication protocols. OMB is responsible for overseeing and holding agencies accountable for complying with information security requirements such as those provided in the Federal Information Security Modernization Act of 2014.    In summary, IRS has made progress implementing security protections over its tax-processing and financial systems. However, it needs to do more to adequately safeguard taxpayer data. Until IRS fully implements all of our recommendations to mitigate deficiencies in access and other controls, to consistently implement elements of its Information Security program, and to assess the risks, costs and benefits of its authentication options, taxpayer information will remain at unnecessary risk.    Chairwoman Comstock, Ranking Member Lipinski, Chairman Smith, this concludes my statement. I'd be happy to answer your questions.</t>
   </si>
   <si>
@@ -241,9 +226,6 @@
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Madam Chair, and welcome to our guests, and I believe that the information exchanged here is very critical, and it's important to protect taxpayer information. I think that we all bear that sort of responsibility and goal, and I thank you for the information again.    Can I just get a better sense of the IT budget for perhaps the last five years or so from 2010? Has it been flat? Has there been a decrease, increase? What basically are we talking about in numbers here?</t>
   </si>
   <si>
@@ -274,9 +256,6 @@
     <t>400247</t>
   </si>
   <si>
-    <t>Frank D. Lucas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lucas. Thank you, Madam Chair.    Mr. Wilshusen, let's talk for a moment about the magnitude of the fraud. According to your testimony, the IRS estimated that it prevented or recovered $22.5 billion in fraudulent identity theft refunds in 2014 but paid out $3.1 billion in fraudulent refunds. These numbers seem rather precise considering there's no range given. How does the IRS estimate how much it's prevented in fraudulent payments and how much has been paid? And how confident are you, I should say, on the accuracy of these numbers?</t>
   </si>
   <si>
@@ -295,9 +274,6 @@
     <t>412630</t>
   </si>
   <si>
-    <t>Ralph Lee Abraham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you, Madam Chairman.    I think this hearing may be the best argument for a simpler flat-tax-type deal because we look at OPM, we look at the IRS, ACA, every government agency recently in the last year or 2 or 3 at the most seems to have had a major data breach. And every time it starts out with a lower number such in your case with the IRS, the 300, then it goes to 7. Same thing happened in the OPM. It started out a few million, went up to 24, 25 million.    So, again, you know, I personally--and I think everybody listening to this hearing--would rather be responsible for their own security because, you know, our agencies are having major problems getting it right. And again, when we--I'll talk to you, Mr. Koskinen, about you guys--you know what you need to do. I mean, from a single identification to a multiple, I mean, that's pretty commonsense stuff. And it's not like these things were born of yesterday. I mean, these things have been going on for a long time.    But I know you guys are asking for more money, so help me out here. Of the $290 million that we as Congress gave you for this fiscal year 2016, I'm told--and you can certainly correct me if I'm misstating--but how much of that went to employ temporary people to help on the toll-free line?</t>
   </si>
   <si>
@@ -361,9 +337,6 @@
     <t>412674</t>
   </si>
   <si>
-    <t>Darin LaHood</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. LaHood. Thank you, Chairwoman. And I want to thank the witnesses for being here today, for your testimony.    Commissioner, you know, as an outsider looking in and looking at what we've heard, 700,000 taxpayers having their personal information compromised, that we had the GAO come in with 45 recommendations that, you know, the Chairman asked you how many of those have been implemented, and we didn't get a sufficient answer on that, and then more recommendations from GAO. And I guess, I mean, what are the successes that you've had in fixing this problem? I mean, when we tell the American people we've had successes, we're fixing this, we're giving you confidence that we're on the right track after we've had these series of events, statistics out there, and these breaches, I mean, what are the successes?</t>
   </si>
   <si>
@@ -406,9 +379,6 @@
     <t>412634</t>
   </si>
   <si>
-    <t>John R. Moolenaar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Moolenaar. Thank you, Madam Chair, and I appreciate the panelists today.    And, Mr. Wilshusen, I wanted to just--your role at GAO has to do with accountability, especially in the--sort of the information technology area, is that correct?</t>
   </si>
   <si>
@@ -424,9 +394,6 @@
     <t>412610</t>
   </si>
   <si>
-    <t>Bruce Westerman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Madam Chair. Good morning, Commissioner and panel.    You know, I attended the prayer breakfast this morning and seeing the Commissioner here in this special time of season reminded me of life's two certainties of death and taxes. But, you know, I think there may be----</t>
   </si>
   <si>
@@ -481,9 +448,6 @@
     <t>412608</t>
   </si>
   <si>
-    <t>Gary J. Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Madam Chairman.    Mr. Koskinen, one of the potential vulnerabilities that concerns me is that government employees have access to the federal system to access their personal emails, you know, Facebook, Web sites, you know, online shopping using the federal network. Has the IRS taken any action to restrict access by their employees?</t>
   </si>
   <si>
@@ -653,9 +617,6 @@
   </si>
   <si>
     <t>412422</t>
-  </si>
-  <si>
-    <t>Randy Hultgren</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hultgren. [Presiding] The gentleman from Illinois yields back.    Chairwoman Comstock apologizes. She had a commitment in Transportation Committee that she had to run to, but I will yield myself five minutes for questions.    Just to follow up on Mr. Lipinski's question, Mr. George, if the IG says that even at the lower risk level the IRS process is not NIST-compliant, is that correct?</t>
@@ -1084,11 +1045,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1108,13 +1067,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1134,13 +1091,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1160,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1186,13 +1139,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1212,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1238,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1264,13 +1211,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1290,13 +1235,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1316,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1342,13 +1283,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1368,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1394,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1420,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1446,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1474,11 +1405,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1498,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1526,11 +1453,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1550,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1576,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1602,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1628,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1654,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1680,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1706,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1732,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1758,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1784,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1810,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1836,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1862,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1888,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1914,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1940,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1966,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1992,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2018,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2044,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2070,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2096,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2122,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2148,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2174,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2200,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2226,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2252,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2278,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2304,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2330,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2356,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2382,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2408,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2434,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2460,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2486,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2512,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2538,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>74</v>
-      </c>
-      <c r="G58" t="s">
-        <v>75</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2564,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2590,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>74</v>
-      </c>
-      <c r="G60" t="s">
-        <v>75</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2616,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2642,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
+        <v>69</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
         <v>74</v>
-      </c>
-      <c r="G62" t="s">
-        <v>75</v>
-      </c>
-      <c r="H62" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2668,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2694,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>74</v>
-      </c>
-      <c r="G64" t="s">
-        <v>75</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2720,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2746,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G66" t="s">
-        <v>75</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2772,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>85</v>
-      </c>
-      <c r="G67" t="s">
-        <v>86</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2798,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2824,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>85</v>
-      </c>
-      <c r="G69" t="s">
-        <v>86</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2850,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2876,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>85</v>
-      </c>
-      <c r="G71" t="s">
-        <v>86</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2902,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>92</v>
-      </c>
-      <c r="G72" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2928,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2954,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>92</v>
-      </c>
-      <c r="G74" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2980,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3006,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>92</v>
-      </c>
-      <c r="G76" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3032,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3058,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>92</v>
-      </c>
-      <c r="G78" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3084,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3110,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>92</v>
-      </c>
-      <c r="G80" t="s">
+        <v>85</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
         <v>93</v>
-      </c>
-      <c r="H80" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3136,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3162,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>92</v>
-      </c>
-      <c r="G82" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3188,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3214,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>92</v>
-      </c>
-      <c r="G84" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3240,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3266,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>92</v>
-      </c>
-      <c r="G86" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3292,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3318,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>92</v>
-      </c>
-      <c r="G88" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3344,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
-      </c>
-      <c r="G89" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3370,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>92</v>
-      </c>
-      <c r="G90" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3396,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3422,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>92</v>
-      </c>
-      <c r="G92" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3448,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>114</v>
-      </c>
-      <c r="G93" t="s">
-        <v>115</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3474,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3500,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G95" t="s">
-        <v>115</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3526,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3552,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>114</v>
-      </c>
-      <c r="G97" t="s">
-        <v>115</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3578,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3604,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>114</v>
-      </c>
-      <c r="G99" t="s">
-        <v>115</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3630,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3656,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>114</v>
-      </c>
-      <c r="G101" t="s">
+        <v>106</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
         <v>115</v>
-      </c>
-      <c r="H101" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3682,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3708,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>114</v>
-      </c>
-      <c r="G103" t="s">
-        <v>115</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3734,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
-      </c>
-      <c r="G104" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3760,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>114</v>
-      </c>
-      <c r="G105" t="s">
-        <v>115</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3786,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>129</v>
-      </c>
-      <c r="G106" t="s">
-        <v>130</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3812,13 +3563,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
-      </c>
-      <c r="G107" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3838,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>129</v>
-      </c>
-      <c r="G108" t="s">
-        <v>130</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3864,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
-      </c>
-      <c r="G109" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3890,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>135</v>
-      </c>
-      <c r="G110" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3916,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>17</v>
-      </c>
-      <c r="G111" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3942,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>135</v>
-      </c>
-      <c r="G112" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3968,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
-      </c>
-      <c r="G113" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3994,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>135</v>
-      </c>
-      <c r="G114" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4020,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
-      </c>
-      <c r="G115" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4046,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>135</v>
-      </c>
-      <c r="G116" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4072,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>17</v>
-      </c>
-      <c r="G117" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4098,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>135</v>
-      </c>
-      <c r="G118" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4124,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
-      </c>
-      <c r="G119" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4150,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>135</v>
-      </c>
-      <c r="G120" t="s">
+        <v>125</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
         <v>136</v>
-      </c>
-      <c r="H120" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4176,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
-      </c>
-      <c r="G121" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4202,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>17</v>
-      </c>
-      <c r="G122" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4228,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
-      </c>
-      <c r="G123" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4254,13 +3971,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
-      </c>
-      <c r="G124" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4280,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>17</v>
-      </c>
-      <c r="G125" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4306,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>135</v>
-      </c>
-      <c r="G126" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4332,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>154</v>
-      </c>
-      <c r="G127" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4358,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
-      </c>
-      <c r="G128" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4384,13 +4091,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>154</v>
-      </c>
-      <c r="G129" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4410,13 +4115,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
-      </c>
-      <c r="G130" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4436,13 +4139,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>154</v>
-      </c>
-      <c r="G131" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4462,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
-      </c>
-      <c r="G132" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4488,13 +4187,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>154</v>
-      </c>
-      <c r="G133" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4514,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>17</v>
-      </c>
-      <c r="G134" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4540,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>154</v>
-      </c>
-      <c r="G135" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4566,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>17</v>
-      </c>
-      <c r="G136" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4592,13 +4283,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
+        <v>143</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
         <v>154</v>
-      </c>
-      <c r="G137" t="s">
-        <v>155</v>
-      </c>
-      <c r="H137" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4618,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
-      </c>
-      <c r="G138" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4644,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>154</v>
-      </c>
-      <c r="G139" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4670,13 +4355,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
-      </c>
-      <c r="G140" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4696,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>154</v>
-      </c>
-      <c r="G141" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4722,13 +4403,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>17</v>
-      </c>
-      <c r="G142" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4748,13 +4427,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>154</v>
-      </c>
-      <c r="G143" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4774,13 +4451,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>17</v>
-      </c>
-      <c r="G144" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4800,13 +4475,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>154</v>
-      </c>
-      <c r="G145" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4826,13 +4499,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>17</v>
-      </c>
-      <c r="G146" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4852,13 +4523,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>154</v>
-      </c>
-      <c r="G147" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4878,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>17</v>
-      </c>
-      <c r="G148" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4904,13 +4571,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>154</v>
-      </c>
-      <c r="G149" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4930,13 +4595,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>17</v>
-      </c>
-      <c r="G150" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4956,13 +4619,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>154</v>
-      </c>
-      <c r="G151" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4982,13 +4643,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>17</v>
-      </c>
-      <c r="G152" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5008,13 +4667,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>154</v>
-      </c>
-      <c r="G153" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5034,13 +4691,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>17</v>
-      </c>
-      <c r="G154" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5060,13 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>17</v>
-      </c>
-      <c r="G155" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5086,13 +4739,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>17</v>
-      </c>
-      <c r="G156" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5112,13 +4763,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>17</v>
-      </c>
-      <c r="G157" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5140,11 +4789,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>12</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5164,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>17</v>
-      </c>
-      <c r="G159" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5192,11 +4837,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5216,13 +4859,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G161" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5244,11 +4885,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5268,13 +4907,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>17</v>
-      </c>
-      <c r="G163" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5296,11 +4933,9 @@
       <c r="F164" t="s">
         <v>11</v>
       </c>
-      <c r="G164" t="s">
-        <v>12</v>
-      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5320,13 +4955,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>17</v>
-      </c>
-      <c r="G165" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5348,11 +4981,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5372,13 +5003,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>17</v>
-      </c>
-      <c r="G167" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5400,11 +5029,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5424,13 +5051,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>17</v>
-      </c>
-      <c r="G169" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5452,11 +5077,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5476,13 +5099,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>17</v>
-      </c>
-      <c r="G171" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5504,11 +5125,9 @@
       <c r="F172" t="s">
         <v>11</v>
       </c>
-      <c r="G172" t="s">
-        <v>12</v>
-      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5528,13 +5147,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>17</v>
-      </c>
-      <c r="G173" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5556,11 +5173,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>12</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5580,13 +5195,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>17</v>
-      </c>
-      <c r="G175" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5608,11 +5221,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>12</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5632,13 +5243,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>17</v>
-      </c>
-      <c r="G177" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5660,11 +5269,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>12</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5684,13 +5291,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>17</v>
-      </c>
-      <c r="G179" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5712,11 +5317,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>12</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5736,13 +5339,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>17</v>
-      </c>
-      <c r="G181" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5764,11 +5365,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>12</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5788,13 +5387,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>17</v>
-      </c>
-      <c r="G183" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5816,11 +5413,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>12</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5840,13 +5435,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>212</v>
-      </c>
-      <c r="G185" t="s">
-        <v>213</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5866,13 +5459,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>17</v>
-      </c>
-      <c r="G186" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5892,13 +5483,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>212</v>
-      </c>
-      <c r="G187" t="s">
-        <v>213</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5918,13 +5507,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>17</v>
-      </c>
-      <c r="G188" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5944,13 +5531,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>212</v>
-      </c>
-      <c r="G189" t="s">
-        <v>213</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5970,13 +5555,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>17</v>
-      </c>
-      <c r="G190" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5996,13 +5579,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>212</v>
-      </c>
-      <c r="G191" t="s">
-        <v>213</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6022,13 +5603,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>17</v>
-      </c>
-      <c r="G192" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6048,13 +5627,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>17</v>
-      </c>
-      <c r="G193" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6074,13 +5651,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>212</v>
-      </c>
-      <c r="G194" t="s">
-        <v>213</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20842.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20842.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="235">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,24 +55,45 @@
     <t>400630</t>
   </si>
   <si>
+    <t>Lipinski</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you Chairwoman Comstock for holding this hearing and welcome to the witnesses today. Today we'll be discussing cybersecurity breaches at two IRS online service portals.    Just about every American can expect to interact with the IRS during his or her life, and the agency's responsibilities make it privy to significant amounts of personal information about all of these individuals. Consequently, the data breaches at the IRS are particularly troubling and we should closely examine what the IRS has done wrong when it comes to protecting the personal information of Americans, how it can do better in regard to cybersecurity, and what Congress can do to better support IRS cybersecurity efforts. In meeting their obligation to pay taxes, Americans should have confidence that the IRS is taking all possible steps to protect them from cyber thieves.    Cybersecurity remains an evolving challenge across federal agencies as well as the private sector. Standards that were leading edge a year ago may be outdated today. Security is not a one-time goal to be achieved and placed on autopilot; it is a process that requires vigilance, continual learning, and fast dissemination of critical information to prevent and respond to new threats. While no entity, public or private, can protect data with 100 percent certainty, we must be nimble in learning from failures or missteps in cybersecurity policies and procedures.    To this end, we should heed the careful and detailed recommendations of the GAO and the Inspectors General. We must also ensure that decisions on cybersecurity policies are backed by a process that supports accountability, robust and forward-looking decision-making, and a clear sense of the consequences that can stem from data security failures.    Unfortunately, it is not at all apparent from the recent breaches at the IRS that the agency's policies were governed by such a comprehensive process. The two breaches that we are discussing today--the Get Transcript application and the Identity Protection PIN application--should not be viewed in isolation. Both of these breaches were facilitated in part by the same security weakness, namely the overreliance on out-of-the-wallet questions derived from credit report data. While in principle the answers to such questions should only be known by taxpayers, in practice they can often be guessed or uncovered from sources such as social media or websites compiling public record data. As a result, a breach in one application should have tipped off the IRS that the other was vulnerable as well. Yet the agency continued to make online IP PIN retrieval available long after shutting down the Get Transcript application because of security concerns. Further, the agency continued to do so even after the Treasury Inspector General for Tax Administration warned the IRS to shut down the IP PIN tool as well.    We must get clarity on what steps the IRS is taking to ensure internal information sharing so that any breaches and their implications are quickly assessed across the entire organization and not just separate units or staff dealing directly with a problem at hand. Further, we must examine why the IRS ignored or deprioritized the TIGTA recommendation to shut down the IP PIN tool. Simply put, given how one breach built on the other, this should not have occurred.    In the context of this hearing, it is important to talk about NIST, an agency that this Subcommittee has jurisdiction over. NIST plays an important role in developing technical standards and providing expert advice to agencies across the government as they carry out their responsibilities under the Federal Information Security Management Act, or FISMA.    It is clear that the IRS did not follow the risk analysis or cybersecurity and authentication standards set by NIST when it set up these portals. The most important question is ``why?'' Was it a lacking--was it a lack of understanding of the standards? In this case, we need to have NIST here to talk about the standards and how to make them more clear. Or are there technical barriers to implementing the NIST standards at all? In this case, we need to have information on why these applications were allowed to go live in the first place. Or was this a strategic decision driven by tradeoffs between consumer convenience and security? These were put online to make the experience of taxpayers with the IRS better and easier. But if that's the case, we must be clear: the IRS has a unique role among federal agencies and holds information on taxpayers that few others have. Protection of taxpayer data must be a top-level priority, and we must work to ensure that a breach of this nature doesn't happen again.    Finally, I'd like to note that successful data security efforts depend on agencies being able to hire experienced cybersecurity professionals as well as having budgetary resources specifically directed toward security infrastructure. While some security failures at the IRS raise oversight questions about decision-making protocols at the management level, we also cannot ignore that successful implementation of good security practices costs money. Although this is beyond the scope of our Committee's jurisdiction, I am concerned that Congress has yet to reauthorize IRS's streamlined critical pay authority which helps the agency compete with the private sector for top cybersecurity talent. And as Congress makes funding decisions for the coming fiscal year, we must ensure that we provide resources to match current IT-specific needs.    I look forward to this morning's discussion, and I yield back the balance of my time</t>
   </si>
   <si>
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Madam Chair, and I appreciate the witnesses being here today.    In this Congress, the Science Committee has held half a dozen hearings on cybersecurity issues and vulnerabilities at federal agencies, and we continue to hear the concerns of millions of Americans who quite frankly don't trust the federal government to protect their personal information from cyber criminals. Too many federal agencies fail to meet the basic standards of information security. We've seen this with HealthCare.Gov and the cyber breach at the Office of Personnel Management. The same is true for the IRS.    According to a report published last November by the Treasury Inspector General for Tax Administration), the IRS's identity authentication methods for online services do not comply with Government Information Security Standards. In other words, the IRS has not taken the necessary steps to ensure that individuals are who they claim to be before handing over Americans' confidential tax information. As a result of these vulnerabilities, the TIGTA report found that, ``unscrupulous individuals have gained unauthorized access to tax account information.''    The U.S. Government Accountability Office has identified a number of ongoing cybersecurity system gaps and IRS failures to fully implement certain security controls. The report found that of 28 prior GAO cybersecurity recommendations to the IRS, nine have not been effectively implemented. These gaps could open the door for cyber criminals to steal confidential taxpayer data.    The past year's IRS breaches are especially troubling. Taxpayer data was fraudulently accessed, not through a forcible compromise of the computer systems, but by hackers who correctly answered security questions that should have only been answerable by the actual individual. The hackers likely accessed the requisite data from prior high-profile hacks.    Last year's OPM and Anthem Health Insurance breaches compromised the information of over 100 million people. This included the names, addresses, dates of birth, and Social Security numbers of the victims. For cyber criminals, this information is similar to making duplicate keys to your house. It's a license to steal whenever and wherever the criminals find an opportunity.    The IRS security breach demonstrates once again that rigorous adherence to all cybersecurity protections must be the top priority for every federal agency. Slow responses and partial measures at the IRS do not protect innocent Americans from these cyber-attacks. The government should be accountable to the people and keep Americans' sensitive information secure.    Thank you, Madam Chairman, and I'll yield back.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Koskinen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Koskinen. Thank you, Chairman Smith, Chairwoman Comstock, Ranking Member Lipinski, and members of the Subcommittee. I appreciate the opportunity to discuss with you today the IRS's ongoing efforts in regard to cybersecurity and identity theft. Securing our systems and taxpayer data continues to be a top priority for the IRS. Even with our constrained resources as a result of repeatedly decreased funding over the past few years, we continue to devote significant time and attention to this challenge. We work continuously to protect our main computer systems from cyber-attacks and to safeguard taxpayer information stored in our databases. These systems withstand more than one million attempts to access them each day.    We're also continuing to battle a growing problem of stolen identify refund fraud. Over the past few years, we've made steady progress in protecting against fraudulent refund claims and criminally prosecuting those who engage in this crime.    But we've found the type of criminal we are dealing with has changed. This problem used to be random individuals filing a few dozen or a few hundred false tax returns at a time. Now we're dealing more and more with organized-crime syndicates here and in other countries. They're gathering unimaginable amounts of personal data as noted from sources outside the IRS so they can do a better job of impersonating taxpayers, evading our return processing filters, and obtaining fraudulent refunds.    To improve our efforts against this complex and evolving threat, in March 2015 we joined with the leaders of the electronic tax industry and the private sector, the software industry and the states to create the Security Summit Group. This is an unprecedented partnership that is focused on making the tax filing experience safer and more secure for taxpayers in 2016 and beyond.    Our collaborative efforts with the private sector and state tax commissioners have already shown concrete results this filing season. For example, Security Summit partners have helped us improve our ability to spot potentially false returns before they are processed. Over the past year, we've seen three examples of what identity thieves are capable of and why we can't let up in this fight. In each case we detected and stopped unauthorized attempts to access online services on our website, IRS.gov, by criminals masquerading as legitimate taxpayers. One of the services targeted, as noted, was our``Get Transcript'' online application used by taxpayers to quickly obtained a copy of their prior year return. Another, as noted, was the online tool to retrieve lost identity protection personal identifier numbers, or IP PINs. Taxpayers who previously were victims of identity theft used these PINs to prove their identity when they filed a return. And the third was a tool that some people used to generate a PIN number when they e-filed their tax returns. In all three cases, criminals were trying to use our online tools to help them pretend to be legitimate taxpayers and sneak past false returns past our fraud filters. These incidents, which unfortunately in the case of ``Get Transcript'' access, resulted in the loss of taxpayer information for thousands of taxpayers before the application was disabled, has shown us that improving our reaction time to suspicious activity isn't enough. We need to be able to anticipate the criminals' next moves and attempt to stay ahead of them. The ongoing work of the Security Summit Group will be critical to our success here.    As we confront the challenge of identity theft, we're also working to expand and improve our ability to interact with taxpayers online to meet taxpayers' increasing demand for digital services. We are aware, however, that in building toward this enhanced online experience, we must continually upgrade and improve our ability to verify the identity of taxpayers using these services. Taxpayers will only use these services if they're confident that they are safe and secure. So we're in the process of developing a strong, coordinated authentication framework.    We have a delicate balance to maintain here. We need to keep the criminals out while letting the legitimate taxpayers in. Our goal is to have the strongest possible authentication process for our ongoing services while maintaining the ability of taxpayers to access their data and use IRS services online.    Congress can provide critical support by providing adequate resources for these efforts. We appreciate the $290 million in additional funding Congress provided for fiscal 2016, which included funds to improve cybersecurity and fight identity theft. We used over $100 million of that funding and are using it now in those areas. Sustaining and increasing funding in this area will be critical as we move forward.    Another way Congress can help us is by passing legislative proposals to improve tax administration and cybersecurity. One of the most important requests we have made is for the reauthorization of streamlined critical pay, the loss of which has made it very difficult, if not impossible, to recruit and retain employees with expertise in highly technical areas such as information technology.    Chairman Smith, Chairwoman Comstock, Ranking Member Lipinski, and members of the Subcommittee, this concludes my statement. I'd be happy to take your questions.</t>
   </si>
   <si>
+    <t>George</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. George. Thank you, Chairwoman Comstock, Ranking Member Lipinski, Chairman Smith, and members of the Subcommittee. Thank you for the opportunity to testify on the IRS's actions to protect taxpayers' personal information.    For the last six years, we have identified the security of taxpayer data as the most serious management challenge confronting the IRS. Based on our work on information technology security, TIGTA has identified a number of areas in which the IRS could do better to protect taxpayer data.    The IRS has been moving towards providing more services through the internet referred to as online services. Web applications that provide online services must be set up in a secure manner. Even without breaching the security of the application or hardware, hackers can pose as legitimate users in order to make it through the authentication process and obtain sensitive data.    Recent security incidents, has been noted during the outset of this hearing, that involved two of the IRS's online service applications, are prime examples of what can go wrong when security is inadequate. While the IRS had established processes and procedures to authenticate individuals requesting online access to IRS services, they did not comply with government standards. For example, the processes that the IRS used to authenticate users of the ``Get Transcript'' and Identity Protection Personal Identification Number applications required only single-factor authentication. However, government standards require multifactor authentication for such high-risk applications. Of further concern, the authentication framework used for these applications did not comply with government standards for single-factor authentication.    In August 2015, the IRS reported that unauthorized users had been successful in obtaining tax information on the ``Get Transcript'' application for an estimated 334,000 taxpayer accounts, as you noted, Madam Chairwoman. To prevent further unauthorized access, the IRS removed the application from its website. TIGTA's subsequent review of the ``Get Transcript'' breach identified additional suspicious accesses to taxpayers' accounts that the IRS had not identified. Based on TIGTA's analysis, the IRS reported on February 26th of this year that potentially unauthorized users had been successful in obtaining access to an additional 390,000 taxpayer accounts, again, as has been noted.    We also reported in November 2015 that the IRS did not complete the required authentication risk assessment for its Identify Protection PIN application and recommended that the IRS not reactivate this application for the 2016 filing season. However, the IRS reactivated the application on January 19th of this year. We issued a second recommendation to the IRS on February 24th advising it to remove the Identity Protection PIN application from its public website. On March 7th, the IRS reported that it was temporarily suspending use of the Identity Protection PIN application as part of an ongoing security review.    The IRS does not anticipate having the technology in place for either the ``Get Transcript'' or Identity Protection PIN application to provide multifactor authentication capability before the summer of 2016. In addition, TIGTA's assessment of the IRS's compliance with information security standards and guidelines found that while the IRS information security program generally complied with the requirements of FISMA--the Federal Information Security Modernization Act--there were three security program areas which did not, and they are continuous monitoring management, configuration management, and identity and access management. Until the IRS takes steps to improve these security program deficiencies and fully implement all security program areas in compliance with requirements, taxpayer data will remain vulnerable to inappropriate and undetected use, modification for disclosure.    Chairman Comstock, Ranking Member Lipinski, Chairman Smith, Members of the Subcommittee, thank you for the opportunity to share my views.</t>
   </si>
   <si>
+    <t>Wilshusen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilshusen. Chairwoman Comstock, Ranking Member Lipinski, Chairman Smith, and Members of the Subcommittee, thank you for the opportunity to testify on IRS's Information Security program.    As part of GAO's annual audit of IRS's financial statements, we examined the information security controls over the Service's financial and tax processing systems. As we reported in March, IRS has implemented numerous protections over these systems but weaknesses remain in controls that are intended to prevent, detect and limit unauthorized access to systems and the information they contain.    IRS had developed controls for identifying and authenticating the identity of users and servers. However, they were inconsistently implemented. For example, the agency used easily guessed passwords on servers supporting several systems including those relating to procurements, automated file transfers, management of taxpayer accounts, and processing of electronic tax payment information. In addition, users were granted excessive access permissions on 11 of 14 systems we reviewed including on one system which allowed users to access or change tax payment-related data.    IRS policies require use of encryption, and the agency continued to expand its use. However, sensitive administrative credentials were not encrypted on key systems that we reviewed. Software patches were often not installed in a timely manner on several systems including at least one critical patch that has been available since August 2012. To its credit, IRS had established contingency plans for the systems we review, which help to ensure that critical operations can continue when unexpected events occur. Nevertheless, the control weaknesses we identified were caused in part by IRS's inconsistent execution of its information security program. Including the 45 new recommendations we made in March, IRS has yet to implement 94 of our recommendations. Implementing these recommendations will assist IRS in bolstering its information security and protection over taxpayer information. Until it does so, taxpayer and financial data will continue to be exposed to unnecessary risk.    The importance of protecting taxpayer information is further highlighted by the recent incidents involving the ``Get Transcript'' online service and the billions of dollars that have been lost to identity theft refund fraud. This type of fraud occurs when a criminal obtains personally identifiable information of a legitimate taxpayer and uses it to file a fraudulent return seeking a refund. Because of its continuing significance, we added IRS's efforts to combat identity theft refund fraud to our high-risk area on the enforcement of tax laws. IRS has acted to address this problem but additional actions are needed.    In January 2015, we reported that its tools for authenticating the identity of taxpayers using e-file had limitations and recommended that IRS assess the risks, costs and benefits of its authentication options.    To assist and guide federal efforts, OMB--the Office of Management and Budget--and the National Institute of Standards and Technology play a key role in developing information security policies, standards, and guidelines for federal agencies. Among other things, OMB and NIST have developed guidance for agencies implementing e-authentication protocols. OMB is responsible for overseeing and holding agencies accountable for complying with information security requirements such as those provided in the Federal Information Security Modernization Act of 2014.    In summary, IRS has made progress implementing security protections over its tax-processing and financial systems. However, it needs to do more to adequately safeguard taxpayer data. Until IRS fully implements all of our recommendations to mitigate deficiencies in access and other controls, to consistently implement elements of its Information Security program, and to assess the risks, costs and benefits of its authentication options, taxpayer information will remain at unnecessary risk.    Chairwoman Comstock, Ranking Member Lipinski, Chairman Smith, this concludes my statement. I'd be happy to answer your questions.</t>
   </si>
   <si>
@@ -226,6 +250,12 @@
     <t>412319</t>
   </si>
   <si>
+    <t>Tonko</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Madam Chair, and welcome to our guests, and I believe that the information exchanged here is very critical, and it's important to protect taxpayer information. I think that we all bear that sort of responsibility and goal, and I thank you for the information again.    Can I just get a better sense of the IT budget for perhaps the last five years or so from 2010? Has it been flat? Has there been a decrease, increase? What basically are we talking about in numbers here?</t>
   </si>
   <si>
@@ -256,6 +286,12 @@
     <t>400247</t>
   </si>
   <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lucas. Thank you, Madam Chair.    Mr. Wilshusen, let's talk for a moment about the magnitude of the fraud. According to your testimony, the IRS estimated that it prevented or recovered $22.5 billion in fraudulent identity theft refunds in 2014 but paid out $3.1 billion in fraudulent refunds. These numbers seem rather precise considering there's no range given. How does the IRS estimate how much it's prevented in fraudulent payments and how much has been paid? And how confident are you, I should say, on the accuracy of these numbers?</t>
   </si>
   <si>
@@ -274,6 +310,12 @@
     <t>412630</t>
   </si>
   <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you, Madam Chairman.    I think this hearing may be the best argument for a simpler flat-tax-type deal because we look at OPM, we look at the IRS, ACA, every government agency recently in the last year or 2 or 3 at the most seems to have had a major data breach. And every time it starts out with a lower number such in your case with the IRS, the 300, then it goes to 7. Same thing happened in the OPM. It started out a few million, went up to 24, 25 million.    So, again, you know, I personally--and I think everybody listening to this hearing--would rather be responsible for their own security because, you know, our agencies are having major problems getting it right. And again, when we--I'll talk to you, Mr. Koskinen, about you guys--you know what you need to do. I mean, from a single identification to a multiple, I mean, that's pretty commonsense stuff. And it's not like these things were born of yesterday. I mean, these things have been going on for a long time.    But I know you guys are asking for more money, so help me out here. Of the $290 million that we as Congress gave you for this fiscal year 2016, I'm told--and you can certainly correct me if I'm misstating--but how much of that went to employ temporary people to help on the toll-free line?</t>
   </si>
   <si>
@@ -337,6 +379,12 @@
     <t>412674</t>
   </si>
   <si>
+    <t>LaHood</t>
+  </si>
+  <si>
+    <t>Darin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. LaHood. Thank you, Chairwoman. And I want to thank the witnesses for being here today, for your testimony.    Commissioner, you know, as an outsider looking in and looking at what we've heard, 700,000 taxpayers having their personal information compromised, that we had the GAO come in with 45 recommendations that, you know, the Chairman asked you how many of those have been implemented, and we didn't get a sufficient answer on that, and then more recommendations from GAO. And I guess, I mean, what are the successes that you've had in fixing this problem? I mean, when we tell the American people we've had successes, we're fixing this, we're giving you confidence that we're on the right track after we've had these series of events, statistics out there, and these breaches, I mean, what are the successes?</t>
   </si>
   <si>
@@ -379,6 +427,12 @@
     <t>412634</t>
   </si>
   <si>
+    <t>Moolenaar</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Moolenaar. Thank you, Madam Chair, and I appreciate the panelists today.    And, Mr. Wilshusen, I wanted to just--your role at GAO has to do with accountability, especially in the--sort of the information technology area, is that correct?</t>
   </si>
   <si>
@@ -394,6 +448,12 @@
     <t>412610</t>
   </si>
   <si>
+    <t>Westerman</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Madam Chair. Good morning, Commissioner and panel.    You know, I attended the prayer breakfast this morning and seeing the Commissioner here in this special time of season reminded me of life's two certainties of death and taxes. But, you know, I think there may be----</t>
   </si>
   <si>
@@ -448,6 +508,12 @@
     <t>412608</t>
   </si>
   <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Madam Chairman.    Mr. Koskinen, one of the potential vulnerabilities that concerns me is that government employees have access to the federal system to access their personal emails, you know, Facebook, Web sites, you know, online shopping using the federal network. Has the IRS taken any action to restrict access by their employees?</t>
   </si>
   <si>
@@ -617,6 +683,12 @@
   </si>
   <si>
     <t>412422</t>
+  </si>
+  <si>
+    <t>Hultgren</t>
+  </si>
+  <si>
+    <t>Randy</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hultgren. [Presiding] The gentleman from Illinois yields back.    Chairwoman Comstock apologizes. She had a commitment in Transportation Committee that she had to run to, but I will yield myself five minutes for questions.    Just to follow up on Mr. Lipinski's question, Mr. George, if the IG says that even at the lower risk level the IRS process is not NIST-compliant, is that correct?</t>
@@ -995,7 +1067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H194"/>
+  <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1003,7 +1075,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1025,4637 +1097,5401 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
       <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
       <c r="H53" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
       <c r="H55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G56" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
       <c r="H57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G58" t="s">
+        <v>78</v>
+      </c>
       <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>69</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G60" t="s">
+        <v>78</v>
+      </c>
       <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>69</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G62" t="s">
+        <v>78</v>
+      </c>
       <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>69</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G64" t="s">
+        <v>78</v>
+      </c>
       <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>69</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G66" t="s">
+        <v>78</v>
+      </c>
       <c r="H66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>79</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G67" t="s">
+        <v>90</v>
+      </c>
       <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G68" t="s">
+        <v>25</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>79</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G69" t="s">
+        <v>90</v>
+      </c>
       <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G70" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>79</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G71" t="s">
+        <v>90</v>
+      </c>
       <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>85</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G72" t="s">
+        <v>98</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>85</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G74" t="s">
+        <v>98</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G75" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>85</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G76" t="s">
+        <v>98</v>
+      </c>
       <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G77" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>85</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G78" t="s">
+        <v>98</v>
+      </c>
       <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G79" t="s">
+        <v>21</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>85</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G80" t="s">
+        <v>98</v>
+      </c>
       <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>85</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G82" t="s">
+        <v>98</v>
+      </c>
       <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G83" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>85</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G84" t="s">
+        <v>98</v>
+      </c>
       <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G85" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>85</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G86" t="s">
+        <v>98</v>
+      </c>
       <c r="H86" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G87" t="s">
+        <v>21</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>85</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G88" t="s">
+        <v>98</v>
+      </c>
       <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G89" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>85</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G90" t="s">
+        <v>98</v>
+      </c>
       <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G91" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>85</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G92" t="s">
+        <v>98</v>
+      </c>
       <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>106</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G93" t="s">
+        <v>121</v>
+      </c>
       <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G94" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>106</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G95" t="s">
+        <v>121</v>
+      </c>
       <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>15</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G96" t="s">
+        <v>21</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>106</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G97" t="s">
+        <v>121</v>
+      </c>
       <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>15</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G98" t="s">
+        <v>21</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>106</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G99" t="s">
+        <v>121</v>
+      </c>
       <c r="H99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>15</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G100" t="s">
+        <v>21</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>106</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G101" t="s">
+        <v>121</v>
+      </c>
       <c r="H101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>15</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G102" t="s">
+        <v>21</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>106</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G103" t="s">
+        <v>121</v>
+      </c>
       <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>15</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G104" t="s">
+        <v>21</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>106</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G105" t="s">
+        <v>121</v>
+      </c>
       <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I105" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>120</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G106" t="s">
+        <v>137</v>
+      </c>
       <c r="H106" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G107" t="s">
+        <v>25</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>120</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G108" t="s">
+        <v>137</v>
+      </c>
       <c r="H108" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>15</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G109" t="s">
+        <v>25</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>125</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G110" t="s">
+        <v>144</v>
+      </c>
       <c r="H110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I110" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>15</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G111" t="s">
+        <v>21</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>125</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G112" t="s">
+        <v>144</v>
+      </c>
       <c r="H112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I112" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>15</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G113" t="s">
+        <v>21</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>125</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G114" t="s">
+        <v>144</v>
+      </c>
       <c r="H114" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I114" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>15</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G115" t="s">
+        <v>21</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>125</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G116" t="s">
+        <v>144</v>
+      </c>
       <c r="H116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I116" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>15</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>21</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>125</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G118" t="s">
+        <v>144</v>
+      </c>
       <c r="H118" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I118" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>15</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>21</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>125</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G120" t="s">
+        <v>144</v>
+      </c>
       <c r="H120" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I120" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>15</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G121" t="s">
+        <v>23</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>15</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G122" t="s">
+        <v>21</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>15</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G123" t="s">
+        <v>23</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>15</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G124" t="s">
+        <v>21</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>15</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G125" t="s">
+        <v>23</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>125</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G126" t="s">
+        <v>144</v>
+      </c>
       <c r="H126" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I126" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>143</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G127" t="s">
+        <v>164</v>
+      </c>
       <c r="H127" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I127" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>15</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G128" t="s">
+        <v>21</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>143</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G129" t="s">
+        <v>164</v>
+      </c>
       <c r="H129" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I129" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>15</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G130" t="s">
+        <v>21</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>143</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G131" t="s">
+        <v>164</v>
+      </c>
       <c r="H131" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I131" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>15</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G132" t="s">
+        <v>21</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>143</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G133" t="s">
+        <v>164</v>
+      </c>
       <c r="H133" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I133" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>15</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G134" t="s">
+        <v>21</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>143</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G135" t="s">
+        <v>164</v>
+      </c>
       <c r="H135" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I135" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>15</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G136" t="s">
+        <v>21</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>143</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G137" t="s">
+        <v>164</v>
+      </c>
       <c r="H137" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I137" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>15</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G138" t="s">
+        <v>21</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>143</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G139" t="s">
+        <v>164</v>
+      </c>
       <c r="H139" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I139" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>15</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G140" t="s">
+        <v>25</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>143</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G141" t="s">
+        <v>164</v>
+      </c>
       <c r="H141" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I141" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>15</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G142" t="s">
+        <v>21</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>143</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G143" t="s">
+        <v>164</v>
+      </c>
       <c r="H143" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I143" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>15</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G144" t="s">
+        <v>21</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>143</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G145" t="s">
+        <v>164</v>
+      </c>
       <c r="H145" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I145" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>15</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G146" t="s">
+        <v>21</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>143</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G147" t="s">
+        <v>164</v>
+      </c>
       <c r="H147" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I147" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G148" t="s">
+        <v>25</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>143</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G149" t="s">
+        <v>164</v>
+      </c>
       <c r="H149" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I149" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>15</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G150" t="s">
+        <v>23</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>143</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G151" t="s">
+        <v>164</v>
+      </c>
       <c r="H151" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I151" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>15</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G152" t="s">
+        <v>21</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>143</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G153" t="s">
+        <v>164</v>
+      </c>
       <c r="H153" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I153" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>15</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>25</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>15</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G155" t="s">
+        <v>21</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>15</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>23</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>15</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
+        <v>21</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>13</v>
+      </c>
       <c r="H158" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I158" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>15</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G159" t="s">
+        <v>23</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>13</v>
+      </c>
       <c r="H160" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>15</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G161" t="s">
+        <v>23</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>11</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
       <c r="H162" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>15</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G163" t="s">
+        <v>23</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>11</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G164" t="s">
+        <v>13</v>
+      </c>
       <c r="H164" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I164" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>15</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G165" t="s">
+        <v>25</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G166" t="s">
+        <v>13</v>
+      </c>
       <c r="H166" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I166" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>15</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G167" t="s">
+        <v>23</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G168" t="s">
+        <v>13</v>
+      </c>
       <c r="H168" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I168" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>15</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G169" t="s">
+        <v>21</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>11</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
       <c r="H170" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I170" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>15</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G171" t="s">
+        <v>23</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>11</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G172" t="s">
+        <v>13</v>
+      </c>
       <c r="H172" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I172" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>15</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G173" t="s">
+        <v>23</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G174" t="s">
+        <v>13</v>
+      </c>
       <c r="H174" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I174" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>15</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G175" t="s">
+        <v>23</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>11</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G176" t="s">
+        <v>13</v>
+      </c>
       <c r="H176" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I176" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>15</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G177" t="s">
+        <v>23</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>11</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G178" t="s">
+        <v>13</v>
+      </c>
       <c r="H178" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I178" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>15</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G179" t="s">
+        <v>23</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G180" t="s">
+        <v>13</v>
+      </c>
       <c r="H180" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I180" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>15</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G181" t="s">
+        <v>21</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G182" t="s">
+        <v>13</v>
+      </c>
       <c r="H182" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I182" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>15</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G183" t="s">
+        <v>23</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G184" t="s">
+        <v>13</v>
+      </c>
       <c r="H184" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I184" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>200</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>222</v>
+      </c>
+      <c r="G185" t="s">
+        <v>223</v>
+      </c>
       <c r="H185" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="I185" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>15</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G186" t="s">
+        <v>23</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>200</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>222</v>
+      </c>
+      <c r="G187" t="s">
+        <v>223</v>
+      </c>
       <c r="H187" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="I187" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>15</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G188" t="s">
+        <v>23</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>200</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>222</v>
+      </c>
+      <c r="G189" t="s">
+        <v>223</v>
+      </c>
       <c r="H189" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="I189" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>15</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G190" t="s">
+        <v>21</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>200</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>222</v>
+      </c>
+      <c r="G191" t="s">
+        <v>223</v>
+      </c>
       <c r="H191" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="I191" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>15</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G192" t="s">
+        <v>23</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>15</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G193" t="s">
+        <v>21</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>200</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>222</v>
+      </c>
+      <c r="G194" t="s">
+        <v>223</v>
+      </c>
       <c r="H194" t="s">
-        <v>210</v>
+        <v>224</v>
+      </c>
+      <c r="I194" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20842.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20842.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="240">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400630</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Lipinski</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -250,6 +259,9 @@
     <t>412319</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Tonko</t>
   </si>
   <si>
@@ -425,6 +437,9 @@
   </si>
   <si>
     <t>412634</t>
+  </si>
+  <si>
+    <t>Vice Chair</t>
   </si>
   <si>
     <t>Moolenaar</t>
@@ -1067,7 +1082,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:J194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1075,7 +1090,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1100,5398 +1115,5776 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
         <v>18</v>
       </c>
-      <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
         <v>20</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I26" t="s">
         <v>21</v>
       </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s">
-        <v>21</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s">
-        <v>21</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G62" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s">
-        <v>21</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I64" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s">
-        <v>21</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G66" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I66" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G67" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>25</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G69" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" t="s">
-        <v>23</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G71" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G72" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s">
-        <v>21</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G74" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>21</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>24</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G76" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I76" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s">
-        <v>21</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>24</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G78" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s">
-        <v>21</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>24</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G80" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H80" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I80" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s">
-        <v>21</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>24</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G82" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H82" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>21</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G84" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H84" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I84" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s">
-        <v>21</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>24</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G86" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H86" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I86" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" t="s">
-        <v>21</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>24</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G88" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H88" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I88" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" t="s">
-        <v>21</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>24</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G90" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H90" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I90" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" t="s">
-        <v>21</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>24</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G92" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H92" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I92" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G93" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="H93" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I93" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" t="s">
-        <v>21</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>24</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G95" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="H95" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I95" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s">
-        <v>21</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>24</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G97" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I97" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" t="s">
-        <v>21</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>24</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G99" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="H99" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I99" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s">
-        <v>21</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>24</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G101" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="H101" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I101" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" t="s">
-        <v>21</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G103" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="H103" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I103" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" t="s">
-        <v>21</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>24</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G105" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="H105" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I105" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G106" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H106" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I106" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s">
-        <v>25</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>28</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G108" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H108" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I108" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J108" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" t="s">
-        <v>25</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>28</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G110" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="H110" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I110" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J110" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s">
-        <v>21</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>24</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G112" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="H112" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I112" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J112" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" t="s">
-        <v>21</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>24</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G114" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="H114" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I114" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="J114" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" t="s">
-        <v>21</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>24</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G116" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="H116" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I116" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J116" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
-      </c>
-      <c r="G117" t="s">
-        <v>21</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>24</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G118" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="H118" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I118" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J118" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" t="s">
-        <v>21</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>24</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G120" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="H120" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I120" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J120" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s">
-        <v>23</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>26</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>20</v>
-      </c>
-      <c r="G122" t="s">
-        <v>21</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>24</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s">
-        <v>23</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>26</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" t="s">
-        <v>21</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>24</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" t="s">
-        <v>23</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>26</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G126" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="H126" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I126" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J126" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G127" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="H127" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I127" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J127" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" t="s">
-        <v>21</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>24</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G129" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="H129" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I129" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J129" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" t="s">
-        <v>21</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>24</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G131" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="H131" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I131" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="J131" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>20</v>
-      </c>
-      <c r="G132" t="s">
-        <v>21</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>24</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G133" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="H133" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I133" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J133" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>20</v>
-      </c>
-      <c r="G134" t="s">
-        <v>21</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>24</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G135" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="H135" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I135" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J135" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>20</v>
-      </c>
-      <c r="G136" t="s">
-        <v>21</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>24</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G137" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="H137" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I137" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J137" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>20</v>
-      </c>
-      <c r="G138" t="s">
-        <v>21</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>24</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G139" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="H139" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I139" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J139" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>20</v>
-      </c>
-      <c r="G140" t="s">
-        <v>25</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>28</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G141" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="H141" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I141" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J141" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" t="s">
-        <v>21</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>24</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G143" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="H143" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I143" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J143" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>20</v>
-      </c>
-      <c r="G144" t="s">
-        <v>21</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>24</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G145" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="H145" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I145" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J145" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" t="s">
-        <v>21</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>24</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G147" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="H147" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I147" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J147" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>20</v>
-      </c>
-      <c r="G148" t="s">
-        <v>25</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>28</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G149" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="H149" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I149" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J149" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>20</v>
-      </c>
-      <c r="G150" t="s">
-        <v>23</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>26</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G151" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="H151" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I151" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J151" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>20</v>
-      </c>
-      <c r="G152" t="s">
-        <v>21</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>24</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G153" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="H153" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I153" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J153" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>20</v>
-      </c>
-      <c r="G154" t="s">
-        <v>25</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>28</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>20</v>
-      </c>
-      <c r="G155" t="s">
-        <v>21</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>24</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>20</v>
-      </c>
-      <c r="G156" t="s">
-        <v>23</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>26</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>20</v>
-      </c>
-      <c r="G157" t="s">
-        <v>21</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>24</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I158" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J158" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>20</v>
-      </c>
-      <c r="G159" t="s">
-        <v>23</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>26</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I160" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J160" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>20</v>
-      </c>
-      <c r="G161" t="s">
-        <v>23</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>26</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I162" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J162" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>20</v>
-      </c>
-      <c r="G163" t="s">
-        <v>23</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>26</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I164" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J164" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>20</v>
-      </c>
-      <c r="G165" t="s">
-        <v>25</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>28</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I166" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J166" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>20</v>
-      </c>
-      <c r="G167" t="s">
-        <v>23</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>26</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I168" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J168" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>20</v>
-      </c>
-      <c r="G169" t="s">
-        <v>21</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>24</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I170" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J170" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>20</v>
-      </c>
-      <c r="G171" t="s">
-        <v>23</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>26</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I172" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>20</v>
-      </c>
-      <c r="G173" t="s">
-        <v>23</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>26</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H174" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I174" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J174" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>20</v>
-      </c>
-      <c r="G175" t="s">
-        <v>23</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>26</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I176" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J176" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>20</v>
-      </c>
-      <c r="G177" t="s">
-        <v>23</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>26</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I178" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J178" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>20</v>
-      </c>
-      <c r="G179" t="s">
-        <v>23</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>26</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G180" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H180" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I180" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J180" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>20</v>
-      </c>
-      <c r="G181" t="s">
-        <v>21</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>24</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H182" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I182" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J182" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>20</v>
-      </c>
-      <c r="G183" t="s">
-        <v>23</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>26</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G184" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H184" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I184" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J184" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G185" t="s">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="H185" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I185" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>229</v>
+      </c>
+      <c r="J185" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>20</v>
-      </c>
-      <c r="G186" t="s">
-        <v>23</v>
-      </c>
-      <c r="H186" t="s"/>
-      <c r="I186" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
+        <v>26</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G187" t="s">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="H187" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I187" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>229</v>
+      </c>
+      <c r="J187" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>20</v>
-      </c>
-      <c r="G188" t="s">
-        <v>23</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>26</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G189" t="s">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="H189" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I189" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="190" spans="1:9">
+      <c r="J189" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>20</v>
-      </c>
-      <c r="G190" t="s">
-        <v>21</v>
-      </c>
-      <c r="H190" t="s"/>
-      <c r="I190" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
+        <v>24</v>
+      </c>
+      <c r="I190" t="s"/>
+      <c r="J190" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G191" t="s">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="H191" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I191" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>229</v>
+      </c>
+      <c r="J191" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>20</v>
-      </c>
-      <c r="G192" t="s">
-        <v>23</v>
-      </c>
-      <c r="H192" t="s"/>
-      <c r="I192" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
+        <v>26</v>
+      </c>
+      <c r="I192" t="s"/>
+      <c r="J192" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>20</v>
-      </c>
-      <c r="G193" t="s">
-        <v>21</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>24</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G194" t="s">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="H194" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I194" t="s">
-        <v>234</v>
+        <v>229</v>
+      </c>
+      <c r="J194" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
